--- a/Project3/testdatanew/New User data.xlsx
+++ b/Project3/testdatanew/New User data.xlsx
@@ -4,12 +4,14 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="11370" windowHeight="4995" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="nail services" sheetId="1" r:id="rId1"/>
+    <sheet name="Home" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1:K14"/>
 </workbook>
 </file>
 
@@ -352,6 +354,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
